--- a/SolutionDomainsAnalyzer/Fictitious_Solution_Domain_Data.xlsx
+++ b/SolutionDomainsAnalyzer/Fictitious_Solution_Domain_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumukhe/Desktop/oldMacRefresh-Desktop/Reports_AB/Vikram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A407F4-E6EA-894D-BD8A-B8FD65EFAAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2153E1-1BA7-294D-BBEC-A2C05FE4B240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{CEB5D933-ECF6-C344-A941-09D895C7DF20}"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{CEB5D933-ECF6-C344-A941-09D895C7DF20}"/>
   </bookViews>
   <sheets>
     <sheet name="Fictitious_Solution_Domain_Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="170">
   <si>
     <t>Account Name</t>
   </si>
@@ -521,10 +521,16 @@
     <t>User 9</t>
   </si>
   <si>
-    <t>Need 'roles based compliance' to move completely off of Prime (Case 5990)</t>
-  </si>
-  <si>
     <t>User 85</t>
+  </si>
+  <si>
+    <t>BU - AT&amp;T INC Mobile services</t>
+  </si>
+  <si>
+    <t>Application Centric Networking</t>
+  </si>
+  <si>
+    <t>Data Center  Automation</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA80256F-8CF8-D64C-85EF-771DFD199D2C}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,12 +1412,13 @@
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="74.83203125" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="48.33203125" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3303,21 +3310,24 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
       <c r="B61" s="1">
         <v>45555</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" t="s">
         <v>166</v>
       </c>
-      <c r="F61" t="s">
-        <v>167</v>
-      </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
@@ -3325,7 +3335,7 @@
         <v>17</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="K61" t="s">
         <v>19</v>
@@ -3340,11 +3350,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EA244D-BC9A-7743-8D40-0D123A0D3232}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
